--- a/output_mapping_multiple_similar.xlsx
+++ b/output_mapping_multiple_similar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="209">
   <si>
     <t>termino_1_codes</t>
   </si>
@@ -31,79 +31,616 @@
     <t>similarity</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>A50A</t>
-  </si>
-  <si>
-    <t>A50AA</t>
-  </si>
-  <si>
-    <t>A50AA01</t>
-  </si>
-  <si>
-    <t>A50B</t>
-  </si>
-  <si>
-    <t>A50BA</t>
-  </si>
-  <si>
-    <t>A50BA01</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ET METABOLISME</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ALIMENTATION ENTERALE</t>
-  </si>
-  <si>
-    <t>ABANDON VOIR</t>
-  </si>
-  <si>
-    <t>NUTRITION VOIE ENTERALE</t>
-  </si>
-  <si>
-    <t>NUTRITION ENTERALE SONDE STANDARD</t>
-  </si>
-  <si>
-    <t>ABANDON</t>
-  </si>
-  <si>
-    <t>A50AA01F</t>
-  </si>
-  <si>
-    <t>A50AAV</t>
-  </si>
-  <si>
-    <t>A50BA01B</t>
-  </si>
-  <si>
-    <t>A50BD</t>
-  </si>
-  <si>
-    <t>A50BAB</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ET METABOLISMES</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ALIMENTATION ENTERALES</t>
-  </si>
-  <si>
-    <t>ABANDON VOIRS</t>
-  </si>
-  <si>
-    <t>ABANDONS</t>
-  </si>
-  <si>
-    <t>NUTRITION VOIE ENTERALES</t>
-  </si>
-  <si>
-    <t>NUTRITION ENTERALE SONDE STANDARDS</t>
+    <t>Valvulopathies</t>
+  </si>
+  <si>
+    <t>Maladie de la valve cardiaque</t>
+  </si>
+  <si>
+    <t>Trouble valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>affections valvulaires cardiaques</t>
+  </si>
+  <si>
+    <t>cardiopathie valvulaire</t>
+  </si>
+  <si>
+    <t>Maladies valvulaires cardiaques</t>
+  </si>
+  <si>
+    <t>cardiaque</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque globale</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque gauche</t>
+  </si>
+  <si>
+    <t>défaillance cardiaque</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque droite</t>
+  </si>
+  <si>
+    <t>Défaillance cardiaque droite</t>
+  </si>
+  <si>
+    <t>insuffisance ventriculaire droite</t>
+  </si>
+  <si>
+    <t>insuffisance ventriculaire gauche</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>athérome</t>
+  </si>
+  <si>
+    <t>Angine poitrine</t>
+  </si>
+  <si>
+    <t>angine de poitrine</t>
+  </si>
+  <si>
+    <t>infarctus du myocarde</t>
+  </si>
+  <si>
+    <t>infarctus myocardique aigu</t>
+  </si>
+  <si>
+    <t>coronarien</t>
+  </si>
+  <si>
+    <t>maladie coronarienne</t>
+  </si>
+  <si>
+    <t>maladie des artères coronaires</t>
+  </si>
+  <si>
+    <t>I08.9</t>
+  </si>
+  <si>
+    <t>I08</t>
+  </si>
+  <si>
+    <t>T82.0</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I51.9</t>
+  </si>
+  <si>
+    <t>I08.8</t>
+  </si>
+  <si>
+    <t>I05.9</t>
+  </si>
+  <si>
+    <t>I05.8</t>
+  </si>
+  <si>
+    <t>I07.9</t>
+  </si>
+  <si>
+    <t>I07.8</t>
+  </si>
+  <si>
+    <t>I97.1</t>
+  </si>
+  <si>
+    <t>I44.2</t>
+  </si>
+  <si>
+    <t>I45.9</t>
+  </si>
+  <si>
+    <t>C16.0</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>I46.9</t>
+  </si>
+  <si>
+    <t>I50.1</t>
+  </si>
+  <si>
+    <t>F45.30</t>
+  </si>
+  <si>
+    <t>Z95.0</t>
+  </si>
+  <si>
+    <t>I51.7</t>
+  </si>
+  <si>
+    <t>Q21.9</t>
+  </si>
+  <si>
+    <t>R01.2</t>
+  </si>
+  <si>
+    <t>R01.1</t>
+  </si>
+  <si>
+    <t>I43.1</t>
+  </si>
+  <si>
+    <t>S24.4</t>
+  </si>
+  <si>
+    <t>Y84.0</t>
+  </si>
+  <si>
+    <t>I50.9</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>I50.0</t>
+  </si>
+  <si>
+    <t>P29.0</t>
+  </si>
+  <si>
+    <t>I11.0</t>
+  </si>
+  <si>
+    <t>I09.9</t>
+  </si>
+  <si>
+    <t>I11.9</t>
+  </si>
+  <si>
+    <t>O29.1</t>
+  </si>
+  <si>
+    <t>O89.1</t>
+  </si>
+  <si>
+    <t>I13.0</t>
+  </si>
+  <si>
+    <t>I50.19</t>
+  </si>
+  <si>
+    <t>I50.12</t>
+  </si>
+  <si>
+    <t>I50.10</t>
+  </si>
+  <si>
+    <t>I50.11</t>
+  </si>
+  <si>
+    <t>I50.09</t>
+  </si>
+  <si>
+    <t>R09.2</t>
+  </si>
+  <si>
+    <t>I13.2</t>
+  </si>
+  <si>
+    <t>I24.8</t>
+  </si>
+  <si>
+    <t>I70</t>
+  </si>
+  <si>
+    <t>I25.1</t>
+  </si>
+  <si>
+    <t>I20.9</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I20.1</t>
+  </si>
+  <si>
+    <t>I20.8</t>
+  </si>
+  <si>
+    <t>I20.0</t>
+  </si>
+  <si>
+    <t>I21.9</t>
+  </si>
+  <si>
+    <t>I25.2</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I24.1</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I22.8</t>
+  </si>
+  <si>
+    <t>I22.800</t>
+  </si>
+  <si>
+    <t>I22.9</t>
+  </si>
+  <si>
+    <t>I24.0</t>
+  </si>
+  <si>
+    <t>I22.900</t>
+  </si>
+  <si>
+    <t>I22.100</t>
+  </si>
+  <si>
+    <t>I22.1</t>
+  </si>
+  <si>
+    <t>I22.000</t>
+  </si>
+  <si>
+    <t>I22.0</t>
+  </si>
+  <si>
+    <t>I22.88</t>
+  </si>
+  <si>
+    <t>I21.4</t>
+  </si>
+  <si>
+    <t>I21.400</t>
+  </si>
+  <si>
+    <t>I21.48</t>
+  </si>
+  <si>
+    <t>I21.40</t>
+  </si>
+  <si>
+    <t>I21.98</t>
+  </si>
+  <si>
+    <t>I21.90</t>
+  </si>
+  <si>
+    <t>K05.2</t>
+  </si>
+  <si>
+    <t>K05.3</t>
+  </si>
+  <si>
+    <t>Y52.3</t>
+  </si>
+  <si>
+    <t>T46.3</t>
+  </si>
+  <si>
+    <t>E74.0</t>
+  </si>
+  <si>
+    <t>Maladie de plusieurs valvules, sans précision</t>
+  </si>
+  <si>
+    <t>Maladies de plusieurs valvules</t>
+  </si>
+  <si>
+    <t>Perforation dû (due) à une prothèse valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>Endocardite et atteintes valvulaires cardiaques au cours de maladies classées ailleurs</t>
+  </si>
+  <si>
+    <t>Malposition dû (due) à une prothèse valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>Fuite dû (due) à une prothèse valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>Déplacement dû (due) à une prothèse valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>Cardiopathie, sans précision</t>
+  </si>
+  <si>
+    <t>Autres maladies valvulaires multiples</t>
+  </si>
+  <si>
+    <t>Maladie de la valvule mitrale, sans précision</t>
+  </si>
+  <si>
+    <t>Autres maladies de la valvule mitrale</t>
+  </si>
+  <si>
+    <t>Maladie de la valvule tricuspide, sans précision</t>
+  </si>
+  <si>
+    <t>Autres maladies de la valvule tricuspide</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque après chirurgie cardiaque ou due à la présence d'une prothèse cardiaque</t>
+  </si>
+  <si>
+    <t>Défaillance cardiaque après chirurgie cardiaque ou due à la présence d'une prothèse cardiaque</t>
+  </si>
+  <si>
+    <t>Bloc (du) cardiaque complet SAI</t>
+  </si>
+  <si>
+    <t>Bloc cardiaque SAI</t>
+  </si>
+  <si>
+    <t>Cardia</t>
+  </si>
+  <si>
+    <t>Arrêt cardiaque</t>
+  </si>
+  <si>
+    <t>Arrêt cardiaque, sans précision</t>
+  </si>
+  <si>
+    <t>pulmonaire avec mention de maladie cardiaque SAI ou d'insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>du poumon avec mention de maladie cardiaque SAI ou d'insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>Névrose cardiaque</t>
+  </si>
+  <si>
+    <t>stimulateur cardiaque</t>
+  </si>
+  <si>
+    <t>Dilatation cardiaque</t>
+  </si>
+  <si>
+    <t>Communication (cardiaque) SAI</t>
+  </si>
+  <si>
+    <t>Autres bruits cardiaques</t>
+  </si>
+  <si>
+    <t>Bruit cardiaque SAI</t>
+  </si>
+  <si>
+    <t>Amylose cardiaque</t>
+  </si>
+  <si>
+    <t>Plexus cardiaque</t>
+  </si>
+  <si>
+    <t>Cathétérisme cardiaque</t>
+  </si>
+  <si>
+    <t>Asthme cardiaque</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque, sans précision</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque gauche</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque congestive</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque ou myocardique SAI</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque du nouveau-né</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque hypertensive</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire droite (secondaire à une insuffisance cardiaque gauche)</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque rhumatismale</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche</t>
+  </si>
+  <si>
+    <t>Cardiopathie hypertensive, sans insuffisance cardiaque (congestive)</t>
+  </si>
+  <si>
+    <t>Cardiopathie hypertensive, avec insuffisance cardiaque (congestive)</t>
+  </si>
+  <si>
+    <t>défibrillateur cardiaque</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque dû (due) à une anesthésie au cours de la grossesse</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque dû (due) à une anesthésie au cours de la puerpéralité</t>
+  </si>
+  <si>
+    <t>Cardionéphropathie hypertensive, avec insuffisance cardiaque (congestive)</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche, avec fraction d''éjection ventriculaire gauche [FEVG] non précisée</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche, avec fraction d''éjection ventriculaire gauche [FEVG] inférieure à 40</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche, avec fraction d''éjection ventriculaire gauche [FEVG] supérieure ou égale à 50</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche, avec fraction d''éjection ventriculaire gauche [FEVG] inférieure à 50 et supérieure ou égale à 40</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque congestive, avec fraction d''éjection ventriculaire gauche [FEVG] non précisée</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiorespiratoire</t>
+  </si>
+  <si>
+    <t>Cardionéphropathie hypertensive, avec insuffisance cardiaque (congestive) et rénale</t>
+  </si>
+  <si>
+    <t>Insuffisance coronaire</t>
+  </si>
+  <si>
+    <t>Athérosclérose</t>
+  </si>
+  <si>
+    <t>Athérome des (artères) coronaires</t>
+  </si>
+  <si>
+    <t>Angine de poitrine SAI</t>
+  </si>
+  <si>
+    <t>Angine de poitrine, sans précision</t>
+  </si>
+  <si>
+    <t>Angine de poitrine</t>
+  </si>
+  <si>
+    <t>Angine de poitrine (de) due à un spasme</t>
+  </si>
+  <si>
+    <t>Autres formes d'angine de poitrine</t>
+  </si>
+  <si>
+    <t>Angine de poitrine cardiaque</t>
+  </si>
+  <si>
+    <t>Angine de poitrine (de) angiospastique</t>
+  </si>
+  <si>
+    <t>Angine de poitrine instable</t>
+  </si>
+  <si>
+    <t>Angine de poitrine (de) variable</t>
+  </si>
+  <si>
+    <t>Angine de poitrine (de) Prinzmetal</t>
+  </si>
+  <si>
+    <t>Angine de poitrine avec spasme coronaire vérifié</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde (aigu) SAI</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, ancien</t>
+  </si>
+  <si>
+    <t>infarctus du myocarde récidivant</t>
+  </si>
+  <si>
+    <t>infarctus du myocarde extensif</t>
+  </si>
+  <si>
+    <t>Syndrome postinfarctus du myocarde</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde guéri</t>
+  </si>
+  <si>
+    <t>Infarctus aigu du myocarde</t>
+  </si>
+  <si>
+    <t>Infarctus aigu du myocarde, sans précision</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, d''autres localisations</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, d''autres localisations - \ Prise en charge initiale, infarctus de 24 heures ou moins \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de localisation non précisée</t>
+  </si>
+  <si>
+    <t>Thrombose coronaire n'entraînant pas un infarctus du myocarde</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de localisation non précisée - \ Prise en charge initiale, infarctus de 24 heures ou moins \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, à répétition (aigu) septal SAI</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de la paroi inférieure - \ Prise en charge initiale, infarctus de 24 heures ou moins \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de la paroi inférieure</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de la paroi antérieure - \ Prise en charge initiale, infarctus de 24 heures ou moins \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, de la paroi antérieure</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde à répétition, d''autres localisations - \ Autres prises en charge \</t>
+  </si>
+  <si>
+    <t>Infarctus sousendocardique aigu du myocarde</t>
+  </si>
+  <si>
+    <t>Infarctus sousendocardique aigu du myocarde - \ Prise en charge initiale, infarctus de 24 heures ou moins \</t>
+  </si>
+  <si>
+    <t>Infarctus sousendocardique aigu du myocarde - \ Autres prises en charge \</t>
+  </si>
+  <si>
+    <t>Infarctus sousendocardique aigu du myocarde - \ Prise en charge initiale \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, à répétition (aigu) latéral haut</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, à répétition (aigu) latéral (paroi) SAI</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, à répétition (aigu) latérobasal</t>
+  </si>
+  <si>
+    <t>Infarctus aigu du myocarde, sans précision - \ Autres prises en charge \</t>
+  </si>
+  <si>
+    <t>Infarctus aigu du myocarde, sans précision - \ Prise en charge initiale \</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde, à répétition (aigu) postérolatéral</t>
+  </si>
+  <si>
+    <t>Péricoronarite aigüe</t>
+  </si>
+  <si>
+    <t>Péricoronarite chronique</t>
+  </si>
+  <si>
+    <t>Vasodilatateurs coronariens, non classés ailleurs</t>
+  </si>
+  <si>
+    <t>Maladie de Cori</t>
+  </si>
+  <si>
+    <t>Maladie des (artères) coronaires</t>
+  </si>
+  <si>
+    <t>Sclérose des (artères) coronaires</t>
   </si>
 </sst>
 </file>
@@ -461,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,680 +1025,4200 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.3020362529252811</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>0.9999999999999997</v>
+        <v>0.3020362529252811</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>0.5307909587149049</v>
+        <v>0.6198665870908469</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F5">
-        <v>0.5307909587149049</v>
+        <v>0.6198665870908469</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F6">
-        <v>0.5307909587149049</v>
+        <v>0.2925427931786517</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F7">
-        <v>0.5307909587149049</v>
+        <v>0.2203114740397967</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F8">
-        <v>0.5307909587149049</v>
+        <v>0.2798431604731729</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>0.5307909587149049</v>
+        <v>0.3173115151466216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>0.5307909587149049</v>
+        <v>0.289249251386011</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F11">
-        <v>0.5307909587149049</v>
+        <v>0.2796828724589479</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F12">
-        <v>0.5307909587149049</v>
+        <v>0.3019589581933615</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F13">
-        <v>0.5307909587149049</v>
+        <v>0.2888505584973113</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F14">
-        <v>0.5307909587149049</v>
+        <v>0.327524918646408</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.5307909587149049</v>
+        <v>0.2985594061563208</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F16">
-        <v>0.5307909587149049</v>
+        <v>0.6497366766186505</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F17">
-        <v>0.5307909587149049</v>
+        <v>0.7873061473497759</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F18">
-        <v>0.5307909587149049</v>
+        <v>0.7873061473497759</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F19">
-        <v>0.5307909587149049</v>
+        <v>0.4961372387436954</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F20">
-        <v>0.5307909587149049</v>
+        <v>0.4812313474587274</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F21">
-        <v>0.5307909587149049</v>
+        <v>0.4812313474587274</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F22">
-        <v>0.5307909587149049</v>
+        <v>0.3696345268163544</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F23">
-        <v>0.5307909587149049</v>
+        <v>0.4208463197865908</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F24">
-        <v>0.5307909587149049</v>
+        <v>0.4208463197865908</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3987188200280071</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3805360779617609</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.4127549277628585</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.376251879186065</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F29">
-        <v>0.9999999999999999</v>
+        <v>0.4119129275611738</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F30">
-        <v>0.9999999999999999</v>
+        <v>0.377891505819251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>0.9999999999999999</v>
+        <v>0.2979044426325209</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F32">
-        <v>0.9999999999999999</v>
+        <v>0.2979044426325209</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F33">
-        <v>0.9999999999999999</v>
+        <v>0.6563149887047126</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F34">
-        <v>0.9999999999999999</v>
+        <v>0.2646634723965948</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35">
+        <v>0.2646634723965948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36">
+        <v>0.3672814881349532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37">
+        <v>0.3833033975259698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38">
+        <v>0.2557418066035231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39">
+        <v>0.2390795688870503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40">
+        <v>0.2811798209550186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>0.2272721058927654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42">
+        <v>0.2731393930785965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43">
+        <v>0.2731393930785965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44">
+        <v>0.2477542111043424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45">
+        <v>0.2415428617275553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46">
+        <v>0.2430629073824145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47">
+        <v>0.2333905699258667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48">
+        <v>0.556203687743587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49">
+        <v>0.5773477686626176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>0.5773477686626176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51">
+        <v>0.468681412974459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52">
+        <v>0.2945174848765926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53">
+        <v>0.3696242558614828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54">
+        <v>0.2288651643662415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55">
+        <v>0.2495931051552805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56">
+        <v>0.2604810977293876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57">
+        <v>0.250399251417149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58">
+        <v>0.2633061806408148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59">
+        <v>0.2050380936719414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60">
+        <v>0.2437065213915466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62">
+        <v>0.6602338618505064</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>0.6602338618505064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64">
+        <v>0.4858707081222584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65">
+        <v>0.3367994594886901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66">
+        <v>0.4226888248764573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67">
+        <v>0.2617218590150555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68">
+        <v>0.2854255764937891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69">
+        <v>0.2978766878952486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70">
+        <v>0.2863474559719459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71">
+        <v>0.23447408955104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72">
+        <v>0.3156515712881849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73">
+        <v>0.3463425521610241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74">
+        <v>0.218156300162159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75">
+        <v>0.218156300162159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76">
+        <v>0.5357950828701911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77">
+        <v>0.4599990853511889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78">
+        <v>0.6336283248489968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79">
+        <v>0.6336283248489968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80">
+        <v>0.3232274041924053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81">
+        <v>0.4056556737156621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82">
+        <v>0.3347957861887506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83">
+        <v>0.349400572773691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84">
+        <v>0.251175216368445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85">
+        <v>0.4183428758929202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86">
+        <v>0.3842501215491246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87">
+        <v>0.2748084721733919</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>144</v>
+      </c>
+      <c r="F88">
+        <v>0.2250254541115297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89">
+        <v>0.2674633267602343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90">
+        <v>0.2299675209770082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91">
+        <v>0.2093652249819058</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92">
+        <v>0.2093652249819058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93">
+        <v>0.1988068390873793</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94">
+        <v>0.1777280911724556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95">
+        <v>0.461290744618416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96">
+        <v>0.3960344680073317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97">
+        <v>0.700812392175871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98">
+        <v>0.7096979110899376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100">
+        <v>0.6699282494354935</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101">
+        <v>0.6692983220193961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102">
+        <v>0.60124711809667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103">
+        <v>0.6324181536786821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104">
+        <v>0.5666549659141108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105">
+        <v>0.3463425521610241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106">
+        <v>0.3879032938423718</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107">
+        <v>0.5773477686626176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <v>0.5773477686626176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109">
+        <v>0.468681412974459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110">
+        <v>0.2945174848765926</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" t="s">
+        <v>140</v>
+      </c>
+      <c r="F111">
+        <v>0.3696242558614828</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" t="s">
+        <v>141</v>
+      </c>
+      <c r="F112">
+        <v>0.2288651643662415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113">
+        <v>0.2495931051552805</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114">
+        <v>0.2604810977293876</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115">
+        <v>0.250399251417149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116">
+        <v>0.2633061806408148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117">
+        <v>0.2050380936719414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118">
+        <v>0.2437065213915466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121">
+        <v>0.5101214568800017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" t="s">
+        <v>140</v>
+      </c>
+      <c r="F122">
+        <v>0.6402107636402397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123">
+        <v>0.3964078096229424</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124">
+        <v>0.6602338618505064</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125">
+        <v>0.4323098116988381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126">
+        <v>0.4511684497071365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127">
+        <v>0.4337061040301236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" t="s">
+        <v>144</v>
+      </c>
+      <c r="F128">
+        <v>0.3551379338434036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F129">
+        <v>0.4221139053781645</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130">
+        <v>0.3957193431104736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131">
+        <v>0.3304227680033096</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132">
+        <v>0.3304227680033096</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133">
+        <v>0.280492655082632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134">
+        <v>0.28113556568072</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" t="s">
+        <v>157</v>
+      </c>
+      <c r="F135">
+        <v>0.2436160639409254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+      <c r="F136">
+        <v>0.2459802277520674</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>71</v>
+      </c>
+      <c r="E137" t="s">
+        <v>159</v>
+      </c>
+      <c r="F137">
+        <v>0.3290852393865811</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138">
+        <v>0.2430415953112535</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" t="s">
+        <v>160</v>
+      </c>
+      <c r="F140">
+        <v>0.4966005955810175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" t="s">
+        <v>161</v>
+      </c>
+      <c r="F141">
+        <v>0.5179544085732023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>74</v>
+      </c>
+      <c r="E142" t="s">
+        <v>162</v>
+      </c>
+      <c r="F142">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" t="s">
+        <v>74</v>
+      </c>
+      <c r="E143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
+        <v>75</v>
+      </c>
+      <c r="E144" t="s">
+        <v>164</v>
+      </c>
+      <c r="F144">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s">
+        <v>76</v>
+      </c>
+      <c r="E145" t="s">
+        <v>165</v>
+      </c>
+      <c r="F145">
+        <v>0.6780064869446063</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" t="s">
+        <v>166</v>
+      </c>
+      <c r="F146">
+        <v>0.6112738987894182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>74</v>
+      </c>
+      <c r="E147" t="s">
+        <v>167</v>
+      </c>
+      <c r="F147">
+        <v>0.7406878620641077</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" t="s">
+        <v>76</v>
+      </c>
+      <c r="E148" t="s">
+        <v>168</v>
+      </c>
+      <c r="F148">
+        <v>0.5843963986109879</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149">
+        <v>0.5794790919948219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" t="s">
+        <v>76</v>
+      </c>
+      <c r="E150" t="s">
+        <v>170</v>
+      </c>
+      <c r="F150">
+        <v>0.5477762135944451</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" t="s">
+        <v>76</v>
+      </c>
+      <c r="E151" t="s">
+        <v>171</v>
+      </c>
+      <c r="F151">
+        <v>0.5872078477485347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" t="s">
+        <v>76</v>
+      </c>
+      <c r="E152" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152">
+        <v>0.4283607954911995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" t="s">
+        <v>162</v>
+      </c>
+      <c r="F153">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s">
+        <v>74</v>
+      </c>
+      <c r="E154" t="s">
+        <v>163</v>
+      </c>
+      <c r="F154">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>75</v>
+      </c>
+      <c r="E155" t="s">
+        <v>164</v>
+      </c>
+      <c r="F155">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" t="s">
+        <v>76</v>
+      </c>
+      <c r="E156" t="s">
+        <v>165</v>
+      </c>
+      <c r="F156">
+        <v>0.6780064869446063</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>77</v>
+      </c>
+      <c r="E157" t="s">
+        <v>166</v>
+      </c>
+      <c r="F157">
+        <v>0.6112738987894182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" t="s">
+        <v>167</v>
+      </c>
+      <c r="F158">
+        <v>0.7406878620641077</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159" t="s">
+        <v>168</v>
+      </c>
+      <c r="F159">
+        <v>0.5843963986109879</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160">
+        <v>0.5794790919948219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>76</v>
+      </c>
+      <c r="E161" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161">
+        <v>0.5477762135944451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>76</v>
+      </c>
+      <c r="E162" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162">
+        <v>0.5872078477485347</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" t="s">
+        <v>172</v>
+      </c>
+      <c r="F163">
+        <v>0.4283607954911995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>79</v>
+      </c>
+      <c r="E164" t="s">
+        <v>173</v>
+      </c>
+      <c r="F164">
+        <v>0.8019873845061608</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" t="s">
+        <v>80</v>
+      </c>
+      <c r="E165" t="s">
+        <v>174</v>
+      </c>
+      <c r="F165">
+        <v>0.5812339271779406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>81</v>
+      </c>
+      <c r="E166" t="s">
+        <v>175</v>
+      </c>
+      <c r="F166">
+        <v>0.5637194702339403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" t="s">
+        <v>176</v>
+      </c>
+      <c r="F167">
+        <v>0.575404555948885</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" t="s">
+        <v>177</v>
+      </c>
+      <c r="F168">
+        <v>0.4537581304028927</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>81</v>
+      </c>
+      <c r="E169" t="s">
+        <v>178</v>
+      </c>
+      <c r="F169">
+        <v>0.6555620107192642</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" t="s">
+        <v>80</v>
+      </c>
+      <c r="E170" t="s">
+        <v>179</v>
+      </c>
+      <c r="F170">
+        <v>0.6263650454040015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" t="s">
+        <v>180</v>
+      </c>
+      <c r="F171">
+        <v>0.5639898453219639</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" t="s">
+        <v>79</v>
+      </c>
+      <c r="E172" t="s">
+        <v>181</v>
+      </c>
+      <c r="F172">
+        <v>0.5639898453219639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>84</v>
+      </c>
+      <c r="E173" t="s">
+        <v>182</v>
+      </c>
+      <c r="F173">
+        <v>0.4339552087395543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" t="s">
+        <v>85</v>
+      </c>
+      <c r="E174" t="s">
+        <v>183</v>
+      </c>
+      <c r="F174">
+        <v>0.4573420569364467</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>86</v>
+      </c>
+      <c r="E175" t="s">
+        <v>184</v>
+      </c>
+      <c r="F175">
+        <v>0.3883252951392905</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
+        <v>87</v>
+      </c>
+      <c r="E176" t="s">
+        <v>185</v>
+      </c>
+      <c r="F176">
+        <v>0.3403453112785694</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" t="s">
+        <v>186</v>
+      </c>
+      <c r="F177">
+        <v>0.4308789648041278</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" t="s">
+        <v>84</v>
+      </c>
+      <c r="E178" t="s">
+        <v>187</v>
+      </c>
+      <c r="F178">
+        <v>0.4317882394092095</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" t="s">
+        <v>188</v>
+      </c>
+      <c r="F179">
+        <v>0.4531886264736102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" t="s">
+        <v>189</v>
+      </c>
+      <c r="F180">
+        <v>0.4240086715667534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181" t="s">
+        <v>190</v>
+      </c>
+      <c r="F181">
+        <v>0.4321812228750732</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" t="s">
+        <v>92</v>
+      </c>
+      <c r="E182" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182">
+        <v>0.3897354606540782</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>93</v>
+      </c>
+      <c r="E183" t="s">
+        <v>192</v>
+      </c>
+      <c r="F183">
+        <v>0.3863929743785288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
+        <v>79</v>
+      </c>
+      <c r="E184" t="s">
+        <v>173</v>
+      </c>
+      <c r="F184">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" t="s">
+        <v>80</v>
+      </c>
+      <c r="E185" t="s">
+        <v>174</v>
+      </c>
+      <c r="F185">
+        <v>0.5381103666390208</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>81</v>
+      </c>
+      <c r="E186" t="s">
+        <v>175</v>
+      </c>
+      <c r="F186">
+        <v>0.4520959035281165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s">
+        <v>81</v>
+      </c>
+      <c r="E187" t="s">
+        <v>176</v>
+      </c>
+      <c r="F187">
+        <v>0.4614671948583751</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" t="s">
+        <v>177</v>
+      </c>
+      <c r="F188">
+        <v>0.3639082962002214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>79</v>
+      </c>
+      <c r="E189" t="s">
+        <v>181</v>
+      </c>
+      <c r="F189">
+        <v>0.5946295400007526</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>83</v>
+      </c>
+      <c r="E190" t="s">
+        <v>180</v>
+      </c>
+      <c r="F190">
+        <v>0.5946295400007526</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>193</v>
+      </c>
+      <c r="F191">
+        <v>0.540595664028509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" t="s">
+        <v>81</v>
+      </c>
+      <c r="E192" t="s">
+        <v>178</v>
+      </c>
+      <c r="F192">
+        <v>0.5257524623583424</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" t="s">
+        <v>80</v>
+      </c>
+      <c r="E193" t="s">
+        <v>179</v>
+      </c>
+      <c r="F193">
+        <v>0.5023368645096378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>95</v>
+      </c>
+      <c r="E194" t="s">
+        <v>194</v>
+      </c>
+      <c r="F194">
+        <v>0.5057971259169954</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>84</v>
+      </c>
+      <c r="E195" t="s">
+        <v>187</v>
+      </c>
+      <c r="F195">
+        <v>0.4359977661585665</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" t="s">
+        <v>195</v>
+      </c>
+      <c r="F196">
+        <v>0.4731959224131622</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" t="s">
+        <v>97</v>
+      </c>
+      <c r="E197" t="s">
+        <v>196</v>
+      </c>
+      <c r="F197">
+        <v>0.4688236070866929</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>84</v>
+      </c>
+      <c r="E198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F198">
+        <v>0.3894915964781664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>84</v>
+      </c>
+      <c r="E199" t="s">
+        <v>198</v>
+      </c>
+      <c r="F199">
+        <v>0.3939122855775636</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" t="s">
+        <v>84</v>
+      </c>
+      <c r="E200" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200">
+        <v>0.3913300894994211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>98</v>
+      </c>
+      <c r="E201" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201">
+        <v>0.4562724825894344</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>99</v>
+      </c>
+      <c r="E202" t="s">
+        <v>201</v>
+      </c>
+      <c r="F202">
+        <v>0.4489344568829913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s">
+        <v>84</v>
+      </c>
+      <c r="E203" t="s">
+        <v>202</v>
+      </c>
+      <c r="F203">
+        <v>0.3483601695743007</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>100</v>
+      </c>
+      <c r="E204" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204">
+        <v>0.4832417216279874</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" t="s">
+        <v>101</v>
+      </c>
+      <c r="E205" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205">
+        <v>0.4327941491442374</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" t="s">
+        <v>102</v>
+      </c>
+      <c r="E206" t="s">
+        <v>205</v>
+      </c>
+      <c r="F206">
+        <v>0.459050966099551</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" t="s">
+        <v>103</v>
+      </c>
+      <c r="E207" t="s">
+        <v>205</v>
+      </c>
+      <c r="F207">
+        <v>0.459050966099551</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
         <v>26</v>
       </c>
-      <c r="F35">
-        <v>0.9999999999999999</v>
+      <c r="D208" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" t="s">
+        <v>206</v>
+      </c>
+      <c r="F208">
+        <v>0.6544726248550909</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" t="s">
+        <v>73</v>
+      </c>
+      <c r="E209" t="s">
+        <v>207</v>
+      </c>
+      <c r="F209">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" t="s">
+        <v>73</v>
+      </c>
+      <c r="E210" t="s">
+        <v>161</v>
+      </c>
+      <c r="F210">
+        <v>0.6058099732398607</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="E211" t="s">
+        <v>208</v>
+      </c>
+      <c r="F211">
+        <v>0.5553440159955955</v>
       </c>
     </row>
   </sheetData>
